--- a/Players_UCbar.xlsx
+++ b/Players_UCbar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0ce1ad5daa8bdda/Documents/Phd/temple/project PDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4005E06D-3AAC-4918-B92C-4E0E5D037A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89089E30-A895-4658-9CFB-054C393CE5C3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{4005E06D-3AAC-4918-B92C-4E0E5D037A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3561C0B-B42C-4D83-A1D7-45AF8BFF58F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E3594A8A-671C-48EB-B382-EE66B7E19D0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="119">
   <si>
     <t>No.</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Lake Stevens, Wash. / Lake Stevens HS</t>
-  </si>
-  <si>
-    <t>Everett CC</t>
   </si>
   <si>
     <t>Jackson Flora</t>
@@ -468,6 +465,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB7EB6F-D3B2-45BF-BF95-E15864F0C0C5}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -858,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -876,10 +877,10 @@
         <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -887,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -896,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4">
         <v>45787</v>
@@ -905,10 +906,10 @@
         <v>175</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -916,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -934,10 +935,10 @@
         <v>205</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -945,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="F6" s="4">
         <v>45809</v>
@@ -963,10 +964,10 @@
         <v>190</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -974,10 +975,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -992,10 +993,10 @@
         <v>185</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1003,16 +1004,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4">
         <v>45812</v>
@@ -1021,10 +1022,10 @@
         <v>205</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1032,16 +1033,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3">
         <v>36678</v>
@@ -1050,10 +1051,10 @@
         <v>185</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1061,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F10" s="4">
         <v>45811</v>
@@ -1079,10 +1080,10 @@
         <v>225</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1090,13 +1091,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -1108,10 +1109,10 @@
         <v>180</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1119,16 +1120,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4">
         <v>45810</v>
@@ -1137,10 +1138,10 @@
         <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1148,13 +1149,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -1166,10 +1167,10 @@
         <v>200</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1177,16 +1178,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="4">
         <v>45811</v>
@@ -1195,10 +1196,10 @@
         <v>195</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1206,16 +1207,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3">
         <v>36678</v>
@@ -1224,10 +1225,10 @@
         <v>210</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1235,16 +1236,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4">
         <v>45810</v>
@@ -1253,10 +1254,10 @@
         <v>205</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1264,16 +1265,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4">
         <v>45811</v>
@@ -1282,10 +1283,10 @@
         <v>220</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1293,16 +1294,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="4">
         <v>45809</v>
@@ -1311,10 +1312,10 @@
         <v>160</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1322,16 +1323,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4">
         <v>45809</v>
@@ -1340,10 +1341,10 @@
         <v>205</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1351,16 +1352,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="4">
         <v>45811</v>
@@ -1369,10 +1370,10 @@
         <v>230</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1380,16 +1381,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="4">
         <v>45812</v>
@@ -1398,10 +1399,10 @@
         <v>210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1409,16 +1410,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3">
         <v>36678</v>
@@ -1427,10 +1428,10 @@
         <v>185</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1438,16 +1439,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="4">
         <v>45812</v>
@@ -1456,10 +1457,10 @@
         <v>220</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1467,16 +1468,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4">
         <v>45813</v>
@@ -1485,10 +1486,10 @@
         <v>200</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1496,16 +1497,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4">
         <v>45809</v>
@@ -1514,10 +1515,10 @@
         <v>185</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1525,16 +1526,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="4">
         <v>45810</v>
@@ -1543,10 +1544,10 @@
         <v>190</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1554,16 +1555,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
         <v>45787</v>
@@ -1572,10 +1573,10 @@
         <v>190</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1583,13 +1584,13 @@
         <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -1601,10 +1602,10 @@
         <v>195</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1612,16 +1613,16 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="4">
         <v>45810</v>
@@ -1630,10 +1631,10 @@
         <v>175</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1641,16 +1642,16 @@
         <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="4">
         <v>45815</v>
@@ -1659,10 +1660,10 @@
         <v>225</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1670,16 +1671,16 @@
         <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4">
         <v>45810</v>
@@ -1688,10 +1689,10 @@
         <v>215</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1699,16 +1700,16 @@
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="4">
         <v>45810</v>
@@ -1717,10 +1718,10 @@
         <v>195</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1728,16 +1729,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4">
         <v>45810</v>
@@ -1746,10 +1747,10 @@
         <v>205</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1757,16 +1758,16 @@
         <v>38</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" s="4">
         <v>45813</v>
@@ -1775,10 +1776,10 @@
         <v>215</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1786,16 +1787,16 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="4">
         <v>45810</v>
@@ -1804,10 +1805,10 @@
         <v>205</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1815,10 +1816,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -1833,10 +1834,10 @@
         <v>220</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1844,16 +1845,16 @@
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="4">
         <v>45812</v>
@@ -1862,10 +1863,10 @@
         <v>235</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1873,16 +1874,16 @@
         <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F38" s="4">
         <v>45814</v>
@@ -1891,10 +1892,10 @@
         <v>200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
@@ -1902,13 +1903,13 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -1920,10 +1921,10 @@
         <v>200</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1931,16 +1932,16 @@
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40" s="4">
         <v>45810</v>
@@ -1949,10 +1950,10 @@
         <v>180</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -1960,16 +1961,16 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41" s="4">
         <v>45809</v>
@@ -1978,10 +1979,10 @@
         <v>190</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="87" x14ac:dyDescent="0.35">
@@ -1989,16 +1990,16 @@
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42" s="3">
         <v>36678</v>
@@ -2007,10 +2008,10 @@
         <v>195</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2018,16 +2019,16 @@
         <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4">
         <v>45812</v>
@@ -2036,10 +2037,10 @@
         <v>175</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2047,16 +2048,16 @@
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F44" s="4">
         <v>45812</v>
@@ -2065,10 +2066,10 @@
         <v>195</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
@@ -2076,16 +2077,16 @@
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="4">
         <v>45811</v>
@@ -2094,10 +2095,10 @@
         <v>200</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
